--- a/工作计划.xlsx
+++ b/工作计划.xlsx
@@ -14,17 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>时间段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -55,6 +47,33 @@
   <si>
     <t>1.学习PS2016，观看教学视频，并完成简要的.md，练习相应的操作
 2.学习摄影，总结之前的知识点.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人工作内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司工作内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 设计应用的布局以及重构
+2. 标绘优化，对接，集成新版本标绘
+3. 后台对接，添加地图服务，管理地图图层和下载管理
+4. 寻找开源通信组件，集成到应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这周总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这周总结</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -428,47 +447,67 @@
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="65.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="28.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="B2" s="1">
         <v>4.18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D4" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/工作计划.xlsx
+++ b/工作计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,43 +37,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>个人工作内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司工作内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这周总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这周总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.学习PS2016，观看教学视频，并完成简要的.md，练习相应的操作
+2.学习摄影，总结之前的知识点.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 设计应用的布局以及重构
+2. 标绘优化，对接，集成新版本标绘
+3. 后台对接，添加地图服务，管理地图图层和下载管理
+4. 寻找开源通信组件，集成到应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.学习websocket或者通信相关的知识，添加md
 2.学习es6，制作es6.md,学习到正则扩展https://zhuanlan.zhihu.com/p/87699079
 3.学习摄影，添加摄影.md的光圈，快门,焦距等基本知识整理
 4.学习响应式布局，并应用到个人网站 
 5.完成个人网站页面的布局设计，确定方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.学习PS2016，观看教学视频，并完成简要的.md，练习相应的操作
-2.学习摄影，总结之前的知识点.md</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人工作内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司工作内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 设计应用的布局以及重构
-2. 标绘优化，对接，集成新版本标绘
-3. 后台对接，添加地图服务，管理地图图层和下载管理
-4. 寻找开源通信组件，集成到应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这周总结</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这周总结</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,7 +439,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -461,44 +461,45 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="B2" s="1">
         <v>4.18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3"/>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">

--- a/工作计划.xlsx
+++ b/工作计划.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA5E5F6-F49F-4857-8FAE-C57B3151C7A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>时间段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,11 +30,6 @@
   </si>
   <si>
     <t>4.25-5.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.学习koa,与数据库知识，完成koa和express框架.md
-2。继续学习通信相关知识，知识储备能够独立写出简单的通信应用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -76,11 +72,36 @@
 5.完成个人网站页面的布局设计，确定方案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均未完成
+完成ps学习图层、入门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.学习koa,与数据库知识，完成koa和express框架.md
+2.响应式设计应用到个人网站，计划三周，完成页面改造
+3.学习es6，数据结构的学习
+4:学习ps,一天一节
+5.学习摄影，三要素：光圈，快门、ISO完成md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -150,7 +171,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -225,6 +246,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -260,6 +298,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -435,25 +490,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="65.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="24.73046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.3984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="50.59765625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -461,54 +517,64 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
         <v>4.18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="67.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/工作计划.xlsx
+++ b/工作计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA5E5F6-F49F-4857-8FAE-C57B3151C7A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FA2CC7-4C92-40D9-BBAB-07C81DD21EAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>时间段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,11 +50,6 @@
   </si>
   <si>
     <t>这周总结</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.学习PS2016，观看教学视频，并完成简要的.md，练习相应的操作
-2.学习摄影，总结之前的知识点.md</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -65,36 +60,114 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.学习websocket或者通信相关的知识，添加md
-2.学习es6，制作es6.md,学习到正则扩展https://zhuanlan.zhihu.com/p/87699079
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成ps学习图层、入门
+学习响应式布局知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.学习websocket或者通信相关的知识，添加md
+2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.学习es6，制作es6.md,学习到正则扩展</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://zhuanlan.zhihu.com/p/87699079
 3.学习摄影，添加摄影.md的光圈，快门,焦距等基本知识整理
-4.学习响应式布局，并应用到个人网站 
+4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学习响应式布局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，并应用到个人网站 
 5.完成个人网站页面的布局设计，确定方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>均未完成
-完成ps学习图层、入门</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学习PS2016，观看教学视频，并完成简要的.md，练习相应的操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2.学习摄影，总结之前的知识点.md</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.学习koa,与数据库知识，完成koa和express框架.md
 2.响应式设计应用到个人网站，计划三周，完成页面改造
-3.学习es6，数据结构的学习
-4:学习ps,一天一节
-5.学习摄影，三要素：光圈，快门、ISO完成md</t>
+3:学习ps,一天一节
+4.学习摄影，三要素：光圈，快门、ISO完成md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1：继续开发tiff格式的气象数据返回后端服务
+2：对接标绘，drawhelper,完成最后的标绘汇总
+3：从曹阳那拿到地图影像服务的镜像，部署，并在手机端完成地图数据的下载和用户登录注册的联动
+4：测试app，保证所有已开发功能可用
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -102,7 +175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +185,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -494,7 +575,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -520,10 +601,10 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -543,11 +624,11 @@
         <v>4.18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" s="4"/>
     </row>
@@ -556,17 +637,17 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="81" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -575,6 +656,9 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
